--- a/数据整理/stocks/A股/上证主板/600637-东方明珠.xlsx
+++ b/数据整理/stocks/A股/上证主板/600637-东方明珠.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,25 +502,35 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>010677</t>
+          <t>512980</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>工银瑞信中证传媒指数（LOF）C</t>
+          <t>广发中证传媒ETF</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>92.45</t>
+          <t>25.14</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3.16</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
+          <t>99.26</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8497</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>7</v>
       </c>
     </row>
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>159805</t>
+          <t>160629</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>鹏华中证传媒ETF</t>
+          <t>鹏华中证传媒指数（LOF）</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>95.42</t>
+          <t>7.76</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3.30</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>7</v>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2452</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -548,25 +578,35 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>512980</t>
+          <t>159805</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>广发中证传媒ETF</t>
+          <t>鹏华中证传媒ETF</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>99.26</t>
+          <t>2.94</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.38</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
+          <t>95.42</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0970</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>7</v>
       </c>
     </row>
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>160629</t>
+          <t>164818</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>鹏华中证传媒指数（LOF）</t>
+          <t>工银瑞信中证传媒指数（LOF）A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>93.03</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
           <t>3.16</t>
         </is>
       </c>
-      <c r="F5" t="n">
-        <v>8</v>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -604,25 +654,33 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>164818</t>
+          <t>010677</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>工银瑞信中证传媒指数（LOF）A</t>
+          <t>工银瑞信中证传媒指数（LOF）C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>92.45</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>3.16</t>
         </is>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
         <v>7</v>
       </c>
     </row>
@@ -637,7 +695,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -658,15 +716,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -688,15 +756,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>31.60</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>99.53</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>4.00</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2640</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>7</v>
       </c>
     </row>
@@ -706,25 +784,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>164818</t>
+          <t>160629</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>工银瑞信中证传媒指数（LOF）A</t>
+          <t>鹏华中证传媒指数（LOF）</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>94.11</t>
+          <t>8.04</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
           <t>3.78</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3039</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>7</v>
       </c>
     </row>
@@ -734,25 +822,35 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>010677</t>
+          <t>159805</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>工银瑞信中证传媒指数（LOF）C</t>
+          <t>鹏华中证传媒ETF</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>94.11</t>
+          <t>2.39</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.78</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
+          <t>97.39</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0927</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>7</v>
       </c>
     </row>
@@ -762,25 +860,35 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>159805</t>
+          <t>164818</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>鹏华中证传媒ETF</t>
+          <t>工银瑞信中证传媒指数（LOF）A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>97.39</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3.88</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0370</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>7</v>
       </c>
     </row>
@@ -790,25 +898,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>160629</t>
+          <t>010677</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>鹏华中证传媒指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>94.30</t>
-        </is>
-      </c>
+          <t>工银瑞信中证传媒指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
           <t>3.78</t>
         </is>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
         <v>7</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600637-东方明珠.xlsx
+++ b/数据整理/stocks/A股/上证主板/600637-东方明珠.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -906,7 +907,6 @@
           <t>工银瑞信中证传媒指数（LOF）C</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
           <t>94.11</t>
@@ -915,6 +915,250 @@
       <c r="F6" t="inlineStr">
         <is>
           <t>3.78</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>512980</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发中证传媒ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>35.55</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.41</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1518</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>160629</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华中证传媒指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.28</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.74</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2575</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>159805</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华中证传媒ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>96.21</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0660</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>164818</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>工银瑞信中证传媒指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.70</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0298</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010677</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>工银瑞信中证传媒指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.70</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.98</t>
         </is>
       </c>
       <c r="G6" t="n">

--- a/数据整理/stocks/A股/上证主板/600637-东方明珠.xlsx
+++ b/数据整理/stocks/A股/上证主板/600637-东方明珠.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1171,4 +1172,250 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>512980</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发中证传媒ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>46.14</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.54</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.6518</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>160629</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华中证传媒指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.90</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3035</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>159805</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华中证传媒ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>97.28</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0796</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>164818</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>工银瑞信中证传媒指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0512</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010677</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>工银瑞信中证传媒指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600637-东方明珠.xlsx
+++ b/数据整理/stocks/A股/上证主板/600637-东方明珠.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1418,4 +1419,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.09</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.51</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600637-东方明珠.xlsx
+++ b/数据整理/stocks/A股/上证主板/600637-东方明珠.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1427,7 +1428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1438,17 +1439,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1458,14 +1479,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.09</v>
+          <t>512980</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发中证传媒ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>47.50</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.48</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.5200</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1474,14 +1517,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>5</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.51</v>
+          <t>160629</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华中证传媒指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>9.19</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3069</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1490,14 +1555,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>5</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.7</v>
+          <t>000940</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.94</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1723</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -1506,13 +1593,569 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>005585</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>银河文体娱乐主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.35</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1623</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000968</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发中证养老产业指数A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>10.99</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1495</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>100039</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国通胀通缩主题混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1456</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009658</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇丰晋信中小盘低波动策略股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.49</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.56</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1116</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>164818</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>工银瑞信中证传媒指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0659</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>159805</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鹏华中证传媒ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>98.30</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0613</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>516560</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华宝养老ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>97.35</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0448</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002982</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发中证养老产业指数C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>165522</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>信诚中证TMT产业主题指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005545</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中银改革红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>165524</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>信诚中证智能家居指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009775</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>汇丰晋信中小盘低波动策略股票C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.56</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>15</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.78</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.09</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.51</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>5</v>
       </c>
       <c r="D5" t="n">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
         <v>1.21</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600637-东方明珠.xlsx
+++ b/数据整理/stocks/A股/上证主板/600637-东方明珠.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2054,7 +2055,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2065,17 +2066,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2085,14 +2106,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>15</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.78</v>
+          <t>512980</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发中证传媒ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>44.11</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.38</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.4865</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -2101,14 +2144,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>5</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.09</v>
+          <t>160629</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华中证传媒指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.63</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2663</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -2117,14 +2182,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+          <t>001628</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>招商体育文化休闲股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>83.21</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1328</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>5</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.51</v>
       </c>
     </row>
     <row r="5">
@@ -2133,14 +2220,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>5</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.7</v>
+          <t>164818</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>工银瑞信中证传媒指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.70</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0627</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -2149,13 +2258,357 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>159805</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华中证传媒ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>96.29</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0571</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>161036</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国中证娱乐主题指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0193</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010677</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>工银瑞信中证传媒指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.70</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>165522</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>信诚中证TMT产业主题指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>165524</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>信诚中证智能家居指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>516190</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华夏中证文娱传媒ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>96.81</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>10</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.05</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>15</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.78</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.09</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.51</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>5</v>
       </c>
       <c r="D6" t="n">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="n">
         <v>1.21</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600637-东方明珠.xlsx
+++ b/数据整理/stocks/A股/上证主板/600637-东方明珠.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2491,7 +2492,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2502,17 +2503,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2522,14 +2543,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>10</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.05</v>
+          <t>512980</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发中证传媒ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>49.42</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.21</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.5666</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -2538,14 +2581,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>15</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.78</v>
+          <t>160629</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华中证传媒指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.84</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2368</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -2554,14 +2619,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>5</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.09</v>
+          <t>159805</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华中证传媒ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>97.15</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0572</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -2570,14 +2657,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>5</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.51</v>
+          <t>164818</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>工银瑞信中证传媒指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>97.74</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0544</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -2586,14 +2695,152 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>010677</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>工银瑞信中证传媒指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>97.74</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.92</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.05</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>15</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.78</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.09</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>1.7</v>
+        <v>1.51</v>
       </c>
     </row>
     <row r="7">
@@ -2602,13 +2849,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>5</v>
       </c>
       <c r="D7" t="n">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>5</v>
+      </c>
+      <c r="D8" t="n">
         <v>1.21</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600637-东方明珠.xlsx
+++ b/数据整理/stocks/A股/上证主板/600637-东方明珠.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D2" t="n">
-        <v>1.92</v>
+        <v>1.84</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>2.05</v>
+        <v>1.92</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D4" t="n">
-        <v>2.78</v>
+        <v>2.05</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D5" t="n">
-        <v>2.09</v>
+        <v>2.78</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>1.51</v>
+        <v>2.09</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>1.7</v>
+        <v>1.51</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>5</v>
       </c>
       <c r="D8" t="n">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>5</v>
+      </c>
+      <c r="D9" t="n">
         <v>1.21</v>
       </c>
     </row>
@@ -600,6 +617,404 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>512980</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发中证传媒ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>44.76</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.29</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.4950</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>160629</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华中证传媒指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2019</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>159805</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华中证传媒ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>98.37</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0564</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>164818</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>工银瑞信中证传媒指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0515</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>159725</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>工银瑞信中证线上消费主题ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>98.42</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>517770</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>浦银安盛中证沪港深游戏及文化传媒ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010677</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>工银瑞信中证传媒指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>015675</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>鹏华中证传媒指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>516190</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华夏中证文娱传媒ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>96.01</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -845,7 +1260,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1281,7 +1696,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1900,252 +2315,6 @@
       </c>
       <c r="H16" t="n">
         <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>512980</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>广发中证传媒ETF</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>46.14</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>99.54</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.58</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.6518</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>160629</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>鹏华中证传媒指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>8.90</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.72</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.41</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.3035</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>159805</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>鹏华中证传媒ETF</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2.18</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>97.28</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.65</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0796</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>164818</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>工银瑞信中证传媒指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1.52</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>93.98</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.37</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0512</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>010677</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>工银瑞信中证传媒指数（LOF）C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>93.98</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.37</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0003</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -2220,26 +2389,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>35.55</t>
+          <t>46.14</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>99.41</t>
+          <t>99.54</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.24</t>
+          <t>3.58</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.1518</t>
+          <t>1.6518</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -2258,26 +2427,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>8.28</t>
+          <t>8.90</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.74</t>
+          <t>93.72</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.11</t>
+          <t>3.41</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.2575</t>
+          <t>0.3035</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -2296,22 +2465,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.05</t>
+          <t>2.18</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>96.21</t>
+          <t>97.28</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.22</t>
+          <t>3.65</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0660</t>
+          <t>0.0796</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -2334,26 +2503,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>1.52</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.70</t>
+          <t>93.98</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.98</t>
+          <t>3.37</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0298</t>
+          <t>0.0512</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -2372,24 +2541,26 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>93.70</t>
+          <t>93.98</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.98</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
       </c>
       <c r="H6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -2464,22 +2635,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>31.60</t>
+          <t>35.55</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>99.53</t>
+          <t>99.41</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>3.24</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.2640</t>
+          <t>1.1518</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -2502,22 +2673,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>8.04</t>
+          <t>8.28</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.30</t>
+          <t>94.74</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.78</t>
+          <t>3.11</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.3039</t>
+          <t>0.2575</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -2540,22 +2711,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.39</t>
+          <t>2.05</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>97.39</t>
+          <t>96.21</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.88</t>
+          <t>3.22</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0927</t>
+          <t>0.0660</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -2578,22 +2749,22 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>94.11</t>
+          <t>93.70</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.78</t>
+          <t>2.98</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0370</t>
+          <t>0.0298</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -2614,14 +2785,19 @@
           <t>工银瑞信中证传媒指数（LOF）C</t>
         </is>
       </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>94.11</t>
+          <t>93.70</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.78</t>
+          <t>2.98</t>
         </is>
       </c>
       <c r="G6" t="n">
@@ -2637,6 +2813,245 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>512980</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发中证传媒ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>31.60</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.53</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2640</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>160629</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华中证传媒指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.04</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3039</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>159805</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华中证传媒ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>97.39</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0927</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>164818</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>工银瑞信中证传媒指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0370</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010677</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>工银瑞信中证传媒指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/600637-东方明珠.xlsx
+++ b/数据整理/stocks/A股/上证主板/600637-东方明珠.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="n">
-        <v>1.84</v>
+        <v>1.82</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D3" t="n">
-        <v>1.92</v>
+        <v>1.84</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>2.05</v>
+        <v>1.92</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D5" t="n">
-        <v>2.78</v>
+        <v>2.05</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D6" t="n">
-        <v>2.09</v>
+        <v>2.78</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>1.51</v>
+        <v>2.09</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>5</v>
       </c>
       <c r="D8" t="n">
-        <v>1.7</v>
+        <v>1.51</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C9" t="n">
         <v>5</v>
       </c>
       <c r="D9" t="n">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>5</v>
+      </c>
+      <c r="D10" t="n">
         <v>1.21</v>
       </c>
     </row>
@@ -616,7 +633,687 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>512980</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发中证传媒ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>25.14</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.26</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8497</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>160629</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华中证传媒指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.76</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2452</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>159805</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华中证传媒ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>95.42</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0970</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>164818</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>工银瑞信中证传媒指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010677</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>工银瑞信中证传媒指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>512980</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发中证传媒ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>48.31</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.36</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.3768</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>160629</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华中证传媒指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1890</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>159855</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>银华中证影视主题ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>97.80</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>164818</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>工银瑞信中证传媒指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0490</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>159805</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华中证传媒ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>98.37</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0485</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>516620</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国泰中证影视主题ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>98.01</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0464</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006048</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>长城中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0260</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007413</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>长城中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010677</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>工银瑞信中证传媒指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>015675</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>鹏华中证传媒指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1014,7 +1711,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1260,7 +1957,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1696,7 +2393,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2315,252 +3012,6 @@
       </c>
       <c r="H16" t="n">
         <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>512980</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>广发中证传媒ETF</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>46.14</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>99.54</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.58</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.6518</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>160629</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>鹏华中证传媒指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>8.90</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.72</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.41</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.3035</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>159805</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>鹏华中证传媒ETF</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2.18</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>97.28</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.65</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0796</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>164818</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>工银瑞信中证传媒指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1.52</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>93.98</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.37</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0512</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>010677</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>工银瑞信中证传媒指数（LOF）C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>93.98</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.37</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0003</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -2635,26 +3086,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>35.55</t>
+          <t>46.14</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>99.41</t>
+          <t>99.54</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.24</t>
+          <t>3.58</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.1518</t>
+          <t>1.6518</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -2673,26 +3124,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>8.28</t>
+          <t>8.90</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.74</t>
+          <t>93.72</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.11</t>
+          <t>3.41</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.2575</t>
+          <t>0.3035</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -2711,22 +3162,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.05</t>
+          <t>2.18</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>96.21</t>
+          <t>97.28</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.22</t>
+          <t>3.65</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0660</t>
+          <t>0.0796</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -2749,26 +3200,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>1.52</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.70</t>
+          <t>93.98</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.98</t>
+          <t>3.37</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0298</t>
+          <t>0.0512</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -2787,24 +3238,26 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>93.70</t>
+          <t>93.98</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.98</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
       </c>
       <c r="H6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -2879,22 +3332,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>31.60</t>
+          <t>35.55</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>99.53</t>
+          <t>99.41</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>3.24</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.2640</t>
+          <t>1.1518</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -2917,22 +3370,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>8.04</t>
+          <t>8.28</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.30</t>
+          <t>94.74</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.78</t>
+          <t>3.11</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.3039</t>
+          <t>0.2575</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -2955,22 +3408,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.39</t>
+          <t>2.05</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>97.39</t>
+          <t>96.21</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.88</t>
+          <t>3.22</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0927</t>
+          <t>0.0660</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -2993,22 +3446,22 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>94.11</t>
+          <t>93.70</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.78</t>
+          <t>2.98</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0370</t>
+          <t>0.0298</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -3029,14 +3482,19 @@
           <t>工银瑞信中证传媒指数（LOF）C</t>
         </is>
       </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>94.11</t>
+          <t>93.70</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.78</t>
+          <t>2.98</t>
         </is>
       </c>
       <c r="G6" t="n">
@@ -3059,51 +3517,51 @@
   </sheetPr>
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>基金金额</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -3118,22 +3576,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>25.14</t>
+          <t>31.60</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>99.26</t>
+          <t>99.53</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.38</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.8497</t>
+          <t>1.2640</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -3141,7 +3599,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
@@ -3156,30 +3614,30 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>7.76</t>
+          <t>8.04</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.03</t>
+          <t>94.30</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.16</t>
+          <t>3.78</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.2452</t>
+          <t>0.3039</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
@@ -3194,22 +3652,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.94</t>
+          <t>2.39</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>95.42</t>
+          <t>97.39</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>3.88</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0970</t>
+          <t>0.0927</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -3217,7 +3675,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
@@ -3232,22 +3690,22 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.59</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>92.45</t>
+          <t>94.11</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.16</t>
+          <t>3.78</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0186</t>
+          <t>0.0370</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -3255,7 +3713,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
+      <c r="A6" s="2" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
@@ -3268,19 +3726,14 @@
           <t>工银瑞信中证传媒指数（LOF）C</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>92.45</t>
+          <t>94.11</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.16</t>
+          <t>3.78</t>
         </is>
       </c>
       <c r="G6" t="n">
@@ -3291,6 +3744,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>